--- a/target/test-classes/testdatas/purchaseOrder.xlsx
+++ b/target/test-classes/testdatas/purchaseOrder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\WEB\WEBAutomation\src\test\resources\testdatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E3A813-2DB8-4226-B95C-BC0A34D24476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4395D050-64DD-437C-9C11-1E30BD8F881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2832" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fashion" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Password</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>IPHONE 13 PRO</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -437,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +488,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -516,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD85B81-AE91-492B-9DBF-C5DA5BA1D0D2}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
